--- a/fantasy.xlsx
+++ b/fantasy.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="187" documentId="8_{41CA2F70-6A2D-4258-A0EA-1D2E0CF563F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC282710-CEAF-4F8F-AEFA-552875A7C76A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="7" xr2:uid="{64B8C5B3-54B2-44A4-BE99-61BB0922A31B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="3" xr2:uid="{64B8C5B3-54B2-44A4-BE99-61BB0922A31B}"/>
   </bookViews>
   <sheets>
     <sheet name="General Instruction" sheetId="3" r:id="rId1"/>
@@ -1765,14 +1765,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1783,36 +1783,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6608,8 +6601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020F7D44-CAD0-4055-8772-4E7A048C2E42}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6649,259 +6642,259 @@
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="13" t="str">
+      <c r="B2" s="5" t="str">
         <f>VLOOKUP(A2,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba312a46dfde803c43cf42</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="E2" s="13" t="str">
+      <c r="E2" s="5" t="str">
         <f>VLOOKUP(D2,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>12926</v>
       </c>
-      <c r="F2" s="13" t="str">
+      <c r="F2" s="5" t="str">
         <f>VLOOKUP(D2,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="5">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="str">
+      <c r="B3" s="5" t="str">
         <f>VLOOKUP(A3,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31ae46dfde803c43d2ef</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="E3" s="13" t="str">
+      <c r="E3" s="5" t="str">
         <f>VLOOKUP(D3,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>14501</v>
       </c>
-      <c r="F3" s="13" t="str">
+      <c r="F3" s="5" t="str">
         <f>VLOOKUP(D3,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="5">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="str">
+      <c r="B4" s="5" t="str">
         <f>VLOOKUP(A4,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba30d446dfde803c43cd6d</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="13" t="str">
+      <c r="E4" s="5" t="str">
         <f>VLOOKUP(D4,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>12086</v>
       </c>
-      <c r="F4" s="13" t="str">
+      <c r="F4" s="5" t="str">
         <f>VLOOKUP(D4,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>AllRounder</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="5">
         <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13" t="str">
+      <c r="B5" s="5" t="str">
         <f>VLOOKUP(A5,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba323046dfde803c43d6a0</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="13" t="str">
+      <c r="E5" s="5" t="str">
         <f>VLOOKUP(D5,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>8271</v>
       </c>
-      <c r="F5" s="13" t="str">
+      <c r="F5" s="5" t="str">
         <f>VLOOKUP(D5,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>WicketKeeper</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="5">
         <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13" t="str">
+      <c r="B6" s="5" t="str">
         <f>VLOOKUP(A6,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba329b46dfde803c43da55</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="13" t="str">
+      <c r="E6" s="5" t="str">
         <f>VLOOKUP(D6,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>9838</v>
       </c>
-      <c r="F6" s="13" t="str">
+      <c r="F6" s="5" t="str">
         <f>VLOOKUP(D6,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>WicketKeeper</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="5">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="13" t="str">
+      <c r="B7" s="5" t="str">
         <f>VLOOKUP(A7,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba326546dfde803c43d87a</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="13" t="str">
+      <c r="E7" s="5" t="str">
         <f>VLOOKUP(D7,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>12258</v>
       </c>
-      <c r="F7" s="13" t="str">
+      <c r="F7" s="5" t="str">
         <f>VLOOKUP(D7,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>AllRounder</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="13" t="str">
+      <c r="B8" s="5" t="str">
         <f>VLOOKUP(A8,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba2fe046dfde803c43c7e4</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="13" t="str">
+      <c r="E8" s="5" t="str">
         <f>VLOOKUP(D8,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>10738</v>
       </c>
-      <c r="F8" s="13" t="str">
+      <c r="F8" s="5" t="str">
         <f>VLOOKUP(D8,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>AllRounder</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="5">
         <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="13" t="str">
+      <c r="B9" s="5" t="str">
         <f>VLOOKUP(A9,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba307846dfde803c43cb99</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="13" t="str">
+      <c r="E9" s="5" t="str">
         <f>VLOOKUP(D9,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>10479</v>
       </c>
-      <c r="F9" s="13" t="str">
+      <c r="F9" s="5" t="str">
         <f>VLOOKUP(D9,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>WicketKeeper</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="5">
         <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="13" t="str">
+      <c r="B10" s="5" t="str">
         <f>VLOOKUP(A10,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31f046dfde803c43d4c7</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="13" t="str">
+      <c r="E10" s="5" t="str">
         <f>VLOOKUP(D10,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>10636</v>
       </c>
-      <c r="F10" s="13" t="str">
+      <c r="F10" s="5" t="str">
         <f>VLOOKUP(D10,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="5">
         <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="13" t="str">
+      <c r="B11" s="5" t="str">
         <f>VLOOKUP(A11,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba317346dfde803c43d118</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="13" t="str">
+      <c r="E11" s="5" t="str">
         <f>VLOOKUP(D11,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>2276</v>
       </c>
-      <c r="F11" s="13" t="str">
+      <c r="F11" s="5" t="str">
         <f>VLOOKUP(D11,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>AllRounder</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="5">
         <v>40</v>
       </c>
     </row>
@@ -6954,7 +6947,7 @@
       <c r="I1" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="9" t="s">
         <v>520</v>
       </c>
     </row>
@@ -8040,7 +8033,7 @@
       <c r="A32" s="9">
         <v>34</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>115</v>
       </c>
       <c r="C32" s="9" t="str">
@@ -8100,1609 +8093,1609 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>521</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>523</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="16" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="18">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="C2" s="18" t="str">
+      <c r="C2" s="16" t="str">
         <f>VLOOKUP(B2,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>11813</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="16">
         <f>VLOOKUP(D2,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>58</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="16">
         <v>670</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="18" t="str">
+      <c r="H2" s="16" t="str">
         <f>VLOOKUP(G2,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba329b46dfde803c43da55</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="18" t="str">
+      <c r="J2" s="16" t="str">
         <f>VLOOKUP(B2,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="18">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="C3" s="18" t="str">
+      <c r="C3" s="16" t="str">
         <f>VLOOKUP(B3,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>22571</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="16">
         <f>VLOOKUP(D3,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>58</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="16">
         <v>40</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="18" t="str">
+      <c r="H3" s="16" t="str">
         <f>VLOOKUP(G3,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba329b46dfde803c43da55</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="18" t="str">
+      <c r="J3" s="16" t="str">
         <f>VLOOKUP(B3,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="18">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="18" t="str">
+      <c r="C4" s="16" t="str">
         <f>VLOOKUP(B4,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>1427488</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="16">
         <f>VLOOKUP(D4,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>58</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="H4" s="18" t="e">
+      <c r="H4" s="16" t="e">
         <f>VLOOKUP(G4,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="18" t="str">
+      <c r="J4" s="16" t="str">
         <f>VLOOKUP(B4,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="18">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="18" t="str">
+      <c r="C5" s="16" t="str">
         <f>VLOOKUP(B5,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>9012</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="16">
         <f>VLOOKUP(D5,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>58</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="16">
         <v>150</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="18" t="str">
+      <c r="H5" s="16" t="str">
         <f>VLOOKUP(G5,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba307846dfde803c43cb99</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="18" t="str">
+      <c r="J5" s="16" t="str">
         <f>VLOOKUP(B5,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="18">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="C6" s="18" t="str">
+      <c r="C6" s="16" t="str">
         <f>VLOOKUP(B6,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>8257</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="16">
         <f>VLOOKUP(D6,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>61</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="16">
         <v>20</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="18" t="str">
+      <c r="H6" s="16" t="str">
         <f>VLOOKUP(G6,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba326546dfde803c43d87a</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="18" t="str">
+      <c r="J6" s="16" t="str">
         <f>VLOOKUP(B6,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="18">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="18" t="str">
+      <c r="C7" s="16" t="str">
         <f>VLOOKUP(B7,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>12201</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="16">
         <f>VLOOKUP(D7,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>61</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="16">
         <v>80</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="18" t="str">
+      <c r="H7" s="16" t="str">
         <f>VLOOKUP(G7,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba312a46dfde803c43cf42</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="18" t="str">
+      <c r="J7" s="16" t="str">
         <f>VLOOKUP(B7,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="18">
+      <c r="A8" s="16">
         <v>8</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="C8" s="18" t="str">
+      <c r="C8" s="16" t="str">
         <f>VLOOKUP(B8,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>7825</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="16">
         <f>VLOOKUP(D8,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>61</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="16">
         <v>90</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="18" t="str">
+      <c r="H8" s="16" t="str">
         <f>VLOOKUP(G8,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba2fe046dfde803c43c7e4</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="18" t="str">
+      <c r="J8" s="16" t="str">
         <f>VLOOKUP(B8,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="18">
+      <c r="A9" s="16">
         <v>9</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="18" t="str">
+      <c r="C9" s="16" t="str">
         <f>VLOOKUP(B9,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>14700</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="16">
         <f>VLOOKUP(D9,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>61</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="16">
         <v>50</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="18" t="str">
+      <c r="H9" s="16" t="str">
         <f>VLOOKUP(G9,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba326546dfde803c43d87a</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="18" t="str">
+      <c r="J9" s="16" t="str">
         <f>VLOOKUP(B9,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="18">
+      <c r="A10" s="16">
         <v>10</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="C10" s="18" t="str">
+      <c r="C10" s="16" t="str">
         <f>VLOOKUP(B10,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>13915</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="16">
         <f>VLOOKUP(D10,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>65</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="16">
         <v>50</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="18" t="str">
+      <c r="H10" s="16" t="str">
         <f>VLOOKUP(G10,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31ae46dfde803c43d2ef</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="18" t="str">
+      <c r="J10" s="16" t="str">
         <f>VLOOKUP(B10,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="18">
+      <c r="A11" s="16">
         <v>11</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="C11" s="18" t="str">
+      <c r="C11" s="16" t="str">
         <f>VLOOKUP(B11,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>22561</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="16">
         <f>VLOOKUP(D11,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>65</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="16"/>
+      <c r="G11" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="H11" s="18" t="e">
+      <c r="H11" s="16" t="e">
         <f>VLOOKUP(G11,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="18" t="str">
+      <c r="J11" s="16" t="str">
         <f>VLOOKUP(B11,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="18">
+      <c r="A12" s="16">
         <v>12</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="C12" s="18" t="str">
+      <c r="C12" s="16" t="str">
         <f>VLOOKUP(B12,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>9428</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="16">
         <f>VLOOKUP(D12,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>65</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="16">
         <v>550</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="18" t="str">
+      <c r="H12" s="16" t="str">
         <f>VLOOKUP(G12,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba326546dfde803c43d87a</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="18" t="str">
+      <c r="J12" s="16" t="str">
         <f>VLOOKUP(B12,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="18">
+      <c r="A13" s="16">
         <v>13</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="C13" s="18" t="str">
+      <c r="C13" s="16" t="str">
         <f>VLOOKUP(B13,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>32525</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="16">
         <f>VLOOKUP(D13,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>65</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18" t="s">
+      <c r="F13" s="16"/>
+      <c r="G13" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="H13" s="18" t="e">
+      <c r="H13" s="16" t="e">
         <f>VLOOKUP(G13,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="18" t="str">
+      <c r="J13" s="16" t="str">
         <f>VLOOKUP(B13,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="18">
+      <c r="A14" s="16">
         <v>14</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="C14" s="18" t="str">
+      <c r="C14" s="16" t="str">
         <f>VLOOKUP(B14,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>14689</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="16">
         <f>VLOOKUP(D14,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>65</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="16">
         <v>40</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="18" t="str">
+      <c r="H14" s="16" t="str">
         <f>VLOOKUP(G14,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba312a46dfde803c43cf42</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="18" t="str">
+      <c r="J14" s="16" t="str">
         <f>VLOOKUP(B14,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="18">
+      <c r="A15" s="16">
         <v>15</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="18" t="str">
+      <c r="C15" s="16" t="str">
         <f>VLOOKUP(B15,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>1447</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="16">
         <f>VLOOKUP(D15,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>63</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="16">
         <v>290</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="18" t="str">
+      <c r="H15" s="16" t="str">
         <f>VLOOKUP(G15,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba323046dfde803c43d6a0</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J15" s="18" t="str">
+      <c r="J15" s="16" t="str">
         <f>VLOOKUP(B15,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="18">
+      <c r="A16" s="16">
         <v>16</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="C16" s="18" t="str">
+      <c r="C16" s="16" t="str">
         <f>VLOOKUP(B16,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>1836</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="16">
         <f>VLOOKUP(D16,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>63</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="16">
         <v>50</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="18" t="str">
+      <c r="H16" s="16" t="str">
         <f>VLOOKUP(G16,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba323046dfde803c43d6a0</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J16" s="18" t="str">
+      <c r="J16" s="16" t="str">
         <f>VLOOKUP(B16,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="18">
+      <c r="A17" s="16">
         <v>17</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="18" t="str">
+      <c r="C17" s="16" t="str">
         <f>VLOOKUP(B17,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>22566</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="16">
         <f>VLOOKUP(D17,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>63</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="16">
         <v>70</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="18" t="str">
+      <c r="H17" s="16" t="str">
         <f>VLOOKUP(G17,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba30d446dfde803c43cd6d</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="18" t="str">
+      <c r="J17" s="16" t="str">
         <f>VLOOKUP(B17,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="18">
+      <c r="A18" s="16">
         <v>18</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="18" t="str">
+      <c r="C18" s="16" t="str">
         <f>VLOOKUP(B18,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>10896</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="16">
         <f>VLOOKUP(D18,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>63</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="16">
         <v>200</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="18" t="str">
+      <c r="H18" s="16" t="str">
         <f>VLOOKUP(G18,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba317346dfde803c43d118</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J18" s="18" t="str">
+      <c r="J18" s="16" t="str">
         <f>VLOOKUP(B18,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="18">
+      <c r="A19" s="16">
         <v>19</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="C19" s="18" t="str">
+      <c r="C19" s="16" t="str">
         <f>VLOOKUP(B19,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>11445</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="16">
         <f>VLOOKUP(D19,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>63</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="16">
         <v>10</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="18" t="str">
+      <c r="H19" s="16" t="str">
         <f>VLOOKUP(G19,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31f046dfde803c43d4c7</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J19" s="18" t="str">
+      <c r="J19" s="16" t="str">
         <f>VLOOKUP(B19,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="18">
+      <c r="A20" s="16">
         <v>20</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="C20" s="18" t="str">
+      <c r="C20" s="16" t="str">
         <f>VLOOKUP(B20,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>7915</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="16">
         <f>VLOOKUP(D20,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>62</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="16">
         <v>610</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="18" t="str">
+      <c r="H20" s="16" t="str">
         <f>VLOOKUP(G20,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31f046dfde803c43d4c7</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J20" s="18" t="str">
+      <c r="J20" s="16" t="str">
         <f>VLOOKUP(B20,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="18">
+      <c r="A21" s="16">
         <v>21</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="C21" s="18" t="str">
+      <c r="C21" s="16" t="str">
         <f>VLOOKUP(B21,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>576</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="16">
         <f>VLOOKUP(D21,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>62</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="16">
         <v>540</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="18" t="str">
+      <c r="H21" s="16" t="str">
         <f>VLOOKUP(G21,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31f046dfde803c43d4c7</v>
       </c>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J21" s="18" t="str">
+      <c r="J21" s="16" t="str">
         <f>VLOOKUP(B21,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="18">
+      <c r="A22" s="16">
         <v>22</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="C22" s="18" t="str">
+      <c r="C22" s="16" t="str">
         <f>VLOOKUP(B22,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>14504</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="16">
         <f>VLOOKUP(D22,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>62</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="16">
         <v>300</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="18" t="str">
+      <c r="H22" s="16" t="str">
         <f>VLOOKUP(G22,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba326546dfde803c43d87a</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J22" s="18" t="str">
+      <c r="J22" s="16" t="str">
         <f>VLOOKUP(B22,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="18">
+      <c r="A23" s="16">
         <v>23</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="C23" s="18" t="str">
+      <c r="C23" s="16" t="str">
         <f>VLOOKUP(B23,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>36139</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="16">
         <f>VLOOKUP(D23,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>62</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="16">
         <v>50</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="18" t="str">
+      <c r="H23" s="16" t="str">
         <f>VLOOKUP(G23,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba323046dfde803c43d6a0</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J23" s="18" t="str">
+      <c r="J23" s="16" t="str">
         <f>VLOOKUP(B23,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="18">
+      <c r="A24" s="16">
         <v>24</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="C24" s="18" t="str">
+      <c r="C24" s="16" t="str">
         <f>VLOOKUP(B24,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>13940</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="16">
         <f>VLOOKUP(D24,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>64</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="16">
         <v>870</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="18" t="str">
+      <c r="H24" s="16" t="str">
         <f>VLOOKUP(G24,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba30d446dfde803c43cd6d</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="I24" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J24" s="18" t="str">
+      <c r="J24" s="16" t="str">
         <f>VLOOKUP(B24,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="18">
+      <c r="A25" s="16">
         <v>25</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C25" s="18" t="str">
+      <c r="C25" s="16" t="str">
         <f>VLOOKUP(B25,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>9789</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="16">
         <f>VLOOKUP(D25,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>64</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="16">
         <v>80</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="18" t="str">
+      <c r="H25" s="16" t="str">
         <f>VLOOKUP(G25,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31f046dfde803c43d4c7</v>
       </c>
-      <c r="I25" s="18" t="s">
+      <c r="I25" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J25" s="18" t="str">
+      <c r="J25" s="16" t="str">
         <f>VLOOKUP(B25,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="18">
+      <c r="A26" s="16">
         <v>26</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="C26" s="18" t="str">
+      <c r="C26" s="16" t="str">
         <f>VLOOKUP(B26,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>19328</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="16">
         <f>VLOOKUP(D26,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>64</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="16">
         <v>10</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="18" t="str">
+      <c r="H26" s="16" t="str">
         <f>VLOOKUP(G26,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba317346dfde803c43d118</v>
       </c>
-      <c r="I26" s="18" t="s">
+      <c r="I26" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J26" s="18" t="str">
+      <c r="J26" s="16" t="str">
         <f>VLOOKUP(B26,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="18">
+      <c r="A27" s="16">
         <v>27</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="C27" s="18" t="str">
+      <c r="C27" s="16" t="str">
         <f>VLOOKUP(B27,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>51791</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="16">
         <f>VLOOKUP(D27,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>64</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="16">
         <v>90</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="18" t="str">
+      <c r="H27" s="16" t="str">
         <f>VLOOKUP(G27,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba323046dfde803c43d6a0</v>
       </c>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J27" s="18" t="str">
+      <c r="J27" s="16" t="str">
         <f>VLOOKUP(B27,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="18">
+      <c r="A28" s="16">
         <v>28</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="C28" s="18" t="str">
+      <c r="C28" s="16" t="str">
         <f>VLOOKUP(B28,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>9204</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="16">
         <f>VLOOKUP(D28,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>64</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="16">
         <v>140</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="18" t="str">
+      <c r="H28" s="16" t="str">
         <f>VLOOKUP(G28,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31ae46dfde803c43d2ef</v>
       </c>
-      <c r="I28" s="18" t="s">
+      <c r="I28" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J28" s="18" t="str">
+      <c r="J28" s="16" t="str">
         <f>VLOOKUP(B28,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="18">
+      <c r="A29" s="16">
         <v>29</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="18" t="str">
+      <c r="C29" s="16" t="str">
         <f>VLOOKUP(B29,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>1413</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="16">
         <f>VLOOKUP(D29,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>59</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="16">
         <v>950</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="18" t="str">
+      <c r="H29" s="16" t="str">
         <f>VLOOKUP(G29,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba2fe046dfde803c43c7e4</v>
       </c>
-      <c r="I29" s="18" t="s">
+      <c r="I29" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J29" s="18" t="str">
+      <c r="J29" s="16" t="str">
         <f>VLOOKUP(B29,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="18">
+      <c r="A30" s="16">
         <v>31</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="C30" s="18" t="str">
+      <c r="C30" s="16" t="str">
         <f>VLOOKUP(B30,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>52418</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="16">
         <f>VLOOKUP(D30,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>59</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="16">
         <v>10</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="18" t="str">
+      <c r="H30" s="16" t="str">
         <f>VLOOKUP(G30,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba30d446dfde803c43cd6d</v>
       </c>
-      <c r="I30" s="18" t="s">
+      <c r="I30" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J30" s="18" t="str">
+      <c r="J30" s="16" t="str">
         <f>VLOOKUP(B30,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="18">
+      <c r="A31" s="16">
         <v>32</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="16" t="s">
         <v>462</v>
       </c>
-      <c r="C31" s="18" t="str">
+      <c r="C31" s="16" t="str">
         <f>VLOOKUP(B31,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>13088</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="16">
         <f>VLOOKUP(D31,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>59</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="16">
         <v>10</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="18" t="str">
+      <c r="H31" s="16" t="str">
         <f>VLOOKUP(G31,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba30d446dfde803c43cd6d</v>
       </c>
-      <c r="I31" s="18" t="s">
+      <c r="I31" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J31" s="18" t="str">
+      <c r="J31" s="16" t="str">
         <f>VLOOKUP(B31,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="18">
+      <c r="A32" s="16">
         <v>33</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="C32" s="18" t="str">
+      <c r="C32" s="16" t="str">
         <f>VLOOKUP(B32,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>13169</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="16">
         <f>VLOOKUP(D32,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>59</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="16">
         <v>20</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="18" t="str">
+      <c r="H32" s="16" t="str">
         <f>VLOOKUP(G32,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba307846dfde803c43cb99</v>
       </c>
-      <c r="I32" s="18" t="s">
+      <c r="I32" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J32" s="18" t="str">
+      <c r="J32" s="16" t="str">
         <f>VLOOKUP(B32,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="18">
+      <c r="A33" s="16">
         <v>34</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="C33" s="18" t="str">
+      <c r="C33" s="16" t="str">
         <f>VLOOKUP(B33,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>8497</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="16">
         <f>VLOOKUP(D33,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>255</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="16">
         <v>880</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="18" t="str">
+      <c r="H33" s="16" t="str">
         <f>VLOOKUP(G33,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba307846dfde803c43cb99</v>
       </c>
-      <c r="I33" s="18" t="s">
+      <c r="I33" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J33" s="18" t="str">
+      <c r="J33" s="16" t="str">
         <f>VLOOKUP(B33,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="18">
+      <c r="A34" s="16">
         <v>35</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="18" t="str">
+      <c r="C34" s="16" t="str">
         <f>VLOOKUP(B34,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>10499</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="16">
         <f>VLOOKUP(D34,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>255</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="16">
         <v>30</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H34" s="18" t="str">
+      <c r="H34" s="16" t="str">
         <f>VLOOKUP(G34,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba329b46dfde803c43da55</v>
       </c>
-      <c r="I34" s="18" t="s">
+      <c r="I34" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J34" s="18" t="str">
+      <c r="J34" s="16" t="str">
         <f>VLOOKUP(B34,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="18">
+      <c r="A35" s="16">
         <v>36</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="C35" s="18" t="str">
+      <c r="C35" s="16" t="str">
         <f>VLOOKUP(B35,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>13914</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="16">
         <f>VLOOKUP(D35,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>255</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="16">
         <v>10</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="18" t="str">
+      <c r="H35" s="16" t="str">
         <f>VLOOKUP(G35,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31f046dfde803c43d4c7</v>
       </c>
-      <c r="I35" s="18" t="s">
+      <c r="I35" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J35" s="18" t="str">
+      <c r="J35" s="16" t="str">
         <f>VLOOKUP(B35,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="18">
+      <c r="A36" s="16">
         <v>37</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="C36" s="18" t="str">
+      <c r="C36" s="16" t="str">
         <f>VLOOKUP(B36,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>8709</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="16">
         <f>VLOOKUP(D36,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>255</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="16">
         <v>20</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="18" t="str">
+      <c r="H36" s="16" t="str">
         <f>VLOOKUP(G36,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba323046dfde803c43d6a0</v>
       </c>
-      <c r="I36" s="18" t="s">
+      <c r="I36" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J36" s="18" t="str">
+      <c r="J36" s="16" t="str">
         <f>VLOOKUP(B36,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="18">
+      <c r="A37" s="16">
         <v>38</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="C37" s="18" t="str">
+      <c r="C37" s="16" t="str">
         <f>VLOOKUP(B37,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>1447065</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="16">
         <f>VLOOKUP(D37,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>255</v>
       </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18" t="s">
+      <c r="F37" s="16"/>
+      <c r="G37" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="H37" s="18" t="e">
+      <c r="H37" s="16" t="e">
         <f>VLOOKUP(G37,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="I37" s="18" t="s">
+      <c r="I37" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J37" s="18" t="str">
+      <c r="J37" s="16" t="str">
         <f>VLOOKUP(B37,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="18">
+      <c r="A38" s="16">
         <v>39</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="16" t="s">
         <v>508</v>
       </c>
-      <c r="C38" s="18" t="str">
+      <c r="C38" s="16" t="str">
         <f>VLOOKUP(B38,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>6349</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="16">
         <f>VLOOKUP(D38,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>966</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="16">
         <v>70</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="18" t="str">
+      <c r="H38" s="16" t="str">
         <f>VLOOKUP(G38,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba307846dfde803c43cb99</v>
       </c>
-      <c r="I38" s="18" t="s">
+      <c r="I38" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J38" s="18" t="str">
+      <c r="J38" s="16" t="str">
         <f>VLOOKUP(B38,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="18">
+      <c r="A39" s="16">
         <v>40</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="C39" s="18" t="str">
+      <c r="C39" s="16" t="str">
         <f>VLOOKUP(B39,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>9582</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="16">
         <f>VLOOKUP(D39,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>966</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="16">
         <v>300</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="18" t="str">
+      <c r="H39" s="16" t="str">
         <f>VLOOKUP(G39,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba317346dfde803c43d118</v>
       </c>
-      <c r="I39" s="18" t="s">
+      <c r="I39" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J39" s="18" t="str">
+      <c r="J39" s="16" t="str">
         <f>VLOOKUP(B39,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="18">
+      <c r="A40" s="16">
         <v>41</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="C40" s="18" t="str">
+      <c r="C40" s="16" t="str">
         <f>VLOOKUP(B40,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>10223</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="16">
         <f>VLOOKUP(D40,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>966</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="16">
         <v>30</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="G40" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H40" s="18" t="str">
+      <c r="H40" s="16" t="str">
         <f>VLOOKUP(G40,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31ae46dfde803c43d2ef</v>
       </c>
-      <c r="I40" s="18" t="s">
+      <c r="I40" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J40" s="18" t="str">
+      <c r="J40" s="16" t="str">
         <f>VLOOKUP(B40,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="18">
+      <c r="A41" s="16">
         <v>42</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C41" s="18" t="str">
+      <c r="C41" s="16" t="str">
         <f>VLOOKUP(B41,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>11808</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="16">
         <f>VLOOKUP(D41,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>971</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="16">
         <v>1110</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="G41" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H41" s="18" t="str">
+      <c r="H41" s="16" t="str">
         <f>VLOOKUP(G41,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba312a46dfde803c43cf42</v>
       </c>
-      <c r="I41" s="18" t="s">
+      <c r="I41" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J41" s="18" t="str">
+      <c r="J41" s="16" t="str">
         <f>VLOOKUP(B41,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="18">
+      <c r="A42" s="16">
         <v>43</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="C42" s="18" t="str">
+      <c r="C42" s="16" t="str">
         <f>VLOOKUP(B42,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>13866</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="16">
         <f>VLOOKUP(D42,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>971</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="16">
         <v>500</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G42" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H42" s="18" t="str">
+      <c r="H42" s="16" t="str">
         <f>VLOOKUP(G42,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31ae46dfde803c43d2ef</v>
       </c>
-      <c r="I42" s="18" t="s">
+      <c r="I42" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J42" s="18" t="str">
+      <c r="J42" s="16" t="str">
         <f>VLOOKUP(B42,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="18">
+      <c r="A43" s="16">
         <v>44</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="18" t="str">
+      <c r="C43" s="16" t="str">
         <f>VLOOKUP(B43,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>10636</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="16">
         <f>VLOOKUP(D43,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>59</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="16">
         <v>220</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G43" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="18" t="str">
+      <c r="H43" s="16" t="str">
         <f>VLOOKUP(G43,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31f046dfde803c43d4c7</v>
       </c>
-      <c r="I43" s="18" t="s">
+      <c r="I43" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J43" s="18" t="str">
+      <c r="J43" s="16" t="str">
         <f>VLOOKUP(B43,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" s="18">
+      <c r="A44" s="16">
         <v>45</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="18" t="str">
+      <c r="C44" s="16" t="str">
         <f>VLOOKUP(B44,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>12258</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="16">
         <f>VLOOKUP(D44,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>62</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="16">
         <v>20</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="G44" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="18" t="str">
+      <c r="H44" s="16" t="str">
         <f>VLOOKUP(G44,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba326546dfde803c43d87a</v>
       </c>
-      <c r="I44" s="18" t="s">
+      <c r="I44" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J44" s="18" t="str">
+      <c r="J44" s="16" t="str">
         <f>VLOOKUP(B44,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>AllRounder</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" s="18">
+      <c r="A45" s="16">
         <v>46</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="C45" s="18" t="str">
+      <c r="C45" s="16" t="str">
         <f>VLOOKUP(B45,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>14501</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="16">
         <f>VLOOKUP(D45,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>61</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="16">
         <v>50</v>
       </c>
-      <c r="G45" s="18" t="s">
+      <c r="G45" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H45" s="18" t="str">
+      <c r="H45" s="16" t="str">
         <f>VLOOKUP(G45,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31ae46dfde803c43d2ef</v>
       </c>
-      <c r="I45" s="18" t="s">
+      <c r="I45" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J45" s="18" t="str">
+      <c r="J45" s="16" t="str">
         <f>VLOOKUP(B45,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Batsman</v>
       </c>
@@ -9762,7 +9755,7 @@
       <c r="I1" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="9" t="s">
         <v>520</v>
       </c>
     </row>
@@ -12283,7 +12276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A221FF85-C53A-4BC1-B478-652A282C3908}">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -12302,3007 +12295,3007 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="17" t="s">
         <v>523</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="17" t="s">
         <v>525</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="17" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="20">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="C2" s="20" t="str">
+      <c r="C2" s="17" t="str">
         <f>VLOOKUP(B2,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>8512</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="17">
         <f>VLOOKUP(D2,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>58</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="17">
         <v>10</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="20" t="str">
+      <c r="H2" s="17" t="str">
         <f>VLOOKUP(G2,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31ae46dfde803c43d2ef</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J2" s="21" t="str">
+      <c r="J2" s="18" t="str">
         <f>VLOOKUP(B2,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="20">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="20" t="str">
+      <c r="C3" s="17" t="str">
         <f>VLOOKUP(B3,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>12092</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="17">
         <f>VLOOKUP(D3,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>58</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="17">
         <v>10</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="20" t="str">
+      <c r="H3" s="17" t="str">
         <f>VLOOKUP(G3,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba323046dfde803c43d6a0</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J3" s="21" t="str">
+      <c r="J3" s="18" t="str">
         <f>VLOOKUP(B3,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="20">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="C4" s="20" t="str">
+      <c r="C4" s="17" t="str">
         <f>VLOOKUP(B4,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>16458</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="17">
         <f>VLOOKUP(D4,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>58</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="17">
         <v>170</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="20" t="str">
+      <c r="H4" s="17" t="str">
         <f>VLOOKUP(G4,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba329b46dfde803c43da55</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J4" s="21" t="str">
+      <c r="J4" s="18" t="str">
         <f>VLOOKUP(B4,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="20">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="C5" s="20" t="str">
+      <c r="C5" s="17" t="str">
         <f>VLOOKUP(B5,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>9746</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="17">
         <f>VLOOKUP(D5,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>58</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="17">
         <v>10</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="20" t="str">
+      <c r="H5" s="17" t="str">
         <f>VLOOKUP(G5,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31ae46dfde803c43d2ef</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J5" s="21" t="str">
+      <c r="J5" s="18" t="str">
         <f>VLOOKUP(B5,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="20">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="20" t="str">
+      <c r="C6" s="17" t="str">
         <f>VLOOKUP(B6,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>13184</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="17">
         <f>VLOOKUP(D6,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>58</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="17">
         <v>20</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="20" t="str">
+      <c r="H6" s="17" t="str">
         <f>VLOOKUP(G6,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba2fe046dfde803c43c7e4</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J6" s="21" t="str">
+      <c r="J6" s="18" t="str">
         <f>VLOOKUP(B6,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="20">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="20" t="str">
+      <c r="C7" s="17" t="str">
         <f>VLOOKUP(B7,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>15480</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="17">
         <f>VLOOKUP(D7,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>58</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="17">
         <v>20</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="20" t="str">
+      <c r="H7" s="17" t="str">
         <f>VLOOKUP(G7,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba323046dfde803c43d6a0</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J7" s="21" t="str">
+      <c r="J7" s="18" t="str">
         <f>VLOOKUP(B7,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="20">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="C8" s="20" t="str">
+      <c r="C8" s="17" t="str">
         <f>VLOOKUP(B8,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>19807</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="17">
         <f>VLOOKUP(D8,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>58</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="17">
         <v>20</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="20" t="str">
+      <c r="H8" s="17" t="str">
         <f>VLOOKUP(G8,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba307846dfde803c43cb99</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J8" s="21" t="str">
+      <c r="J8" s="18" t="str">
         <f>VLOOKUP(B8,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="20">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="C9" s="20" t="str">
+      <c r="C9" s="17" t="str">
         <f>VLOOKUP(B9,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>15452</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="17">
         <f>VLOOKUP(D9,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>58</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="17">
         <v>140</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="20" t="str">
+      <c r="H9" s="17" t="str">
         <f>VLOOKUP(G9,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba326546dfde803c43d87a</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J9" s="21" t="str">
+      <c r="J9" s="18" t="str">
         <f>VLOOKUP(B9,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="20">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="20" t="str">
+      <c r="C10" s="17" t="str">
         <f>VLOOKUP(B10,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>10952</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="17">
         <f>VLOOKUP(D10,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>58</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="17">
         <v>120</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="20" t="str">
+      <c r="H10" s="17" t="str">
         <f>VLOOKUP(G10,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba317346dfde803c43d118</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J10" s="21" t="str">
+      <c r="J10" s="18" t="str">
         <f>VLOOKUP(B10,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="20">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="C11" s="20" t="str">
+      <c r="C11" s="17" t="str">
         <f>VLOOKUP(B11,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>8292</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="17">
         <f>VLOOKUP(D11,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>61</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="17">
         <v>240</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="20" t="str">
+      <c r="H11" s="17" t="str">
         <f>VLOOKUP(G11,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba2fe046dfde803c43c7e4</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J11" s="21" t="str">
+      <c r="J11" s="18" t="str">
         <f>VLOOKUP(B11,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="20">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="C12" s="20" t="str">
+      <c r="C12" s="17" t="str">
         <f>VLOOKUP(B12,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>8393</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="17">
         <f>VLOOKUP(D12,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>61</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="17">
         <v>10</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="20" t="str">
+      <c r="H12" s="17" t="str">
         <f>VLOOKUP(G12,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31f046dfde803c43d4c7</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J12" s="21" t="str">
+      <c r="J12" s="18" t="str">
         <f>VLOOKUP(B12,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="20">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="20" t="str">
+      <c r="C13" s="17" t="str">
         <f>VLOOKUP(B13,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>7710</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="17">
         <f>VLOOKUP(D13,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>61</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="17">
         <v>210</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="20" t="str">
+      <c r="H13" s="17" t="str">
         <f>VLOOKUP(G13,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba326546dfde803c43d87a</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J13" s="21" t="str">
+      <c r="J13" s="18" t="str">
         <f>VLOOKUP(B13,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="20">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="C14" s="20" t="str">
+      <c r="C14" s="17" t="str">
         <f>VLOOKUP(B14,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>8181</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="17">
         <f>VLOOKUP(D14,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>61</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="17">
         <v>110</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="20" t="str">
+      <c r="H14" s="17" t="str">
         <f>VLOOKUP(G14,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba30d446dfde803c43cd6d</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J14" s="21" t="str">
+      <c r="J14" s="18" t="str">
         <f>VLOOKUP(B14,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="20">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C15" s="20" t="str">
+      <c r="C15" s="17" t="str">
         <f>VLOOKUP(B15,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>10225</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="17">
         <f>VLOOKUP(D15,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>61</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="17">
         <v>70</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="20" t="str">
+      <c r="H15" s="17" t="str">
         <f>VLOOKUP(G15,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31f046dfde803c43d4c7</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J15" s="21" t="str">
+      <c r="J15" s="18" t="str">
         <f>VLOOKUP(B15,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="20">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="20" t="str">
+      <c r="C16" s="17" t="str">
         <f>VLOOKUP(B16,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>10754</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="17">
         <f>VLOOKUP(D16,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>61</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="17">
         <v>70</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="20" t="str">
+      <c r="H16" s="17" t="str">
         <f>VLOOKUP(G16,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31ae46dfde803c43d2ef</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J16" s="21" t="str">
+      <c r="J16" s="18" t="str">
         <f>VLOOKUP(B16,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="20">
+      <c r="A17" s="17">
         <v>16</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="C17" s="20" t="str">
+      <c r="C17" s="17" t="str">
         <f>VLOOKUP(B17,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>14452</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="17">
         <f>VLOOKUP(D17,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>65</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="17">
         <v>70</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="20" t="str">
+      <c r="H17" s="17" t="str">
         <f>VLOOKUP(G17,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba317346dfde803c43d118</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J17" s="21" t="str">
+      <c r="J17" s="18" t="str">
         <f>VLOOKUP(B17,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="20">
+      <c r="A18" s="17">
         <v>17</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="C18" s="20" t="str">
+      <c r="C18" s="17" t="str">
         <f>VLOOKUP(B18,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>10692</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="17">
         <f>VLOOKUP(D18,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>65</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="17">
         <v>10</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="20" t="str">
+      <c r="H18" s="17" t="str">
         <f>VLOOKUP(G18,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31f046dfde803c43d4c7</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="I18" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J18" s="21" t="str">
+      <c r="J18" s="18" t="str">
         <f>VLOOKUP(B18,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="20">
+      <c r="A19" s="17">
         <v>18</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="C19" s="20" t="str">
+      <c r="C19" s="17" t="str">
         <f>VLOOKUP(B19,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>7910</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="17">
         <f>VLOOKUP(D19,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>65</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="17">
         <v>250</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="20" t="str">
+      <c r="H19" s="17" t="str">
         <f>VLOOKUP(G19,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba307846dfde803c43cb99</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J19" s="21" t="str">
+      <c r="J19" s="18" t="str">
         <f>VLOOKUP(B19,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="20">
+      <c r="A20" s="17">
         <v>19</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="20" t="str">
+      <c r="C20" s="17" t="str">
         <f>VLOOKUP(B20,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>13217</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="17">
         <f>VLOOKUP(D20,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>65</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="17">
         <v>340</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="20" t="str">
+      <c r="H20" s="17" t="str">
         <f>VLOOKUP(G20,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba312a46dfde803c43cf42</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J20" s="21" t="str">
+      <c r="J20" s="18" t="str">
         <f>VLOOKUP(B20,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="20">
+      <c r="A21" s="17">
         <v>20</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="19" t="s">
         <v>488</v>
       </c>
-      <c r="C21" s="20" t="str">
+      <c r="C21" s="17" t="str">
         <f>VLOOKUP(B21,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>11689</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="17">
         <f>VLOOKUP(D21,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>65</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="17">
         <v>10</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="20" t="str">
+      <c r="H21" s="17" t="str">
         <f>VLOOKUP(G21,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba326546dfde803c43d87a</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J21" s="21" t="str">
+      <c r="J21" s="18" t="str">
         <f>VLOOKUP(B21,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="20">
+      <c r="A22" s="17">
         <v>21</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="20" t="str">
+      <c r="C22" s="17" t="str">
         <f>VLOOKUP(B22,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>14336</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="17">
         <f>VLOOKUP(D22,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>65</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="17">
         <v>10</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="20" t="str">
+      <c r="H22" s="17" t="str">
         <f>VLOOKUP(G22,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba30d446dfde803c43cd6d</v>
       </c>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J22" s="21" t="str">
+      <c r="J22" s="18" t="str">
         <f>VLOOKUP(B22,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="20">
+      <c r="A23" s="17">
         <v>22</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="18" t="s">
         <v>486</v>
       </c>
-      <c r="C23" s="20" t="str">
+      <c r="C23" s="17" t="str">
         <f>VLOOKUP(B23,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>10486</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="17">
         <f>VLOOKUP(D23,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>65</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="17">
         <v>40</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="20" t="str">
+      <c r="H23" s="17" t="str">
         <f>VLOOKUP(G23,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba323046dfde803c43d6a0</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J23" s="21" t="str">
+      <c r="J23" s="18" t="str">
         <f>VLOOKUP(B23,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="20">
+      <c r="A24" s="17">
         <v>23</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="C24" s="20" t="str">
+      <c r="C24" s="17" t="str">
         <f>VLOOKUP(B24,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>12096</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="17">
         <f>VLOOKUP(D24,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>65</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="17">
         <v>30</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H24" s="20" t="str">
+      <c r="H24" s="17" t="str">
         <f>VLOOKUP(G24,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31ae46dfde803c43d2ef</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J24" s="21" t="str">
+      <c r="J24" s="18" t="str">
         <f>VLOOKUP(B24,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="20">
+      <c r="A25" s="17">
         <v>24</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="C25" s="20" t="str">
+      <c r="C25" s="17" t="str">
         <f>VLOOKUP(B25,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>24729</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="17">
         <f>VLOOKUP(D25,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>63</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="17">
         <v>170</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="20" t="str">
+      <c r="H25" s="17" t="str">
         <f>VLOOKUP(G25,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba2fe046dfde803c43c7e4</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J25" s="21" t="str">
+      <c r="J25" s="18" t="str">
         <f>VLOOKUP(B25,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="20">
+      <c r="A26" s="17">
         <v>25</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="C26" s="20" t="str">
+      <c r="C26" s="17" t="str">
         <f>VLOOKUP(B26,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>15861</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="17">
         <f>VLOOKUP(D26,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>63</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="17">
         <v>10</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="20" t="str">
+      <c r="H26" s="17" t="str">
         <f>VLOOKUP(G26,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba307846dfde803c43cb99</v>
       </c>
-      <c r="I26" s="20" t="s">
+      <c r="I26" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J26" s="21" t="str">
+      <c r="J26" s="18" t="str">
         <f>VLOOKUP(B26,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="20">
+      <c r="A27" s="17">
         <v>26</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C27" s="20" t="str">
+      <c r="C27" s="17" t="str">
         <f>VLOOKUP(B27,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>12627</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="17">
         <f>VLOOKUP(D27,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>63</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="17">
         <v>10</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="20" t="str">
+      <c r="H27" s="17" t="str">
         <f>VLOOKUP(G27,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba2fe046dfde803c43c7e4</v>
       </c>
-      <c r="I27" s="20" t="s">
+      <c r="I27" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J27" s="21" t="str">
+      <c r="J27" s="18" t="str">
         <f>VLOOKUP(B27,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="20">
+      <c r="A28" s="17">
         <v>27</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="20" t="str">
+      <c r="C28" s="17" t="str">
         <f>VLOOKUP(B28,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>19027</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="17">
         <f>VLOOKUP(D28,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>63</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="17">
         <v>30</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="20" t="str">
+      <c r="H28" s="17" t="str">
         <f>VLOOKUP(G28,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba2fe046dfde803c43c7e4</v>
       </c>
-      <c r="I28" s="20" t="s">
+      <c r="I28" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J28" s="21" t="str">
+      <c r="J28" s="18" t="str">
         <f>VLOOKUP(B28,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="20">
+      <c r="A29" s="17">
         <v>28</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="C29" s="20" t="str">
+      <c r="C29" s="17" t="str">
         <f>VLOOKUP(B29,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>11427</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="17">
         <f>VLOOKUP(D29,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>63</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="17">
         <v>10</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="20" t="str">
+      <c r="H29" s="17" t="str">
         <f>VLOOKUP(G29,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba317346dfde803c43d118</v>
       </c>
-      <c r="I29" s="20" t="s">
+      <c r="I29" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J29" s="21" t="str">
+      <c r="J29" s="18" t="str">
         <f>VLOOKUP(B29,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="20">
+      <c r="A30" s="17">
         <v>29</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="20" t="str">
+      <c r="C30" s="17" t="str">
         <f>VLOOKUP(B30,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>13143</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="17">
         <f>VLOOKUP(D30,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>63</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="17">
         <v>20</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H30" s="20" t="str">
+      <c r="H30" s="17" t="str">
         <f>VLOOKUP(G30,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31ae46dfde803c43d2ef</v>
       </c>
-      <c r="I30" s="20" t="s">
+      <c r="I30" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J30" s="21" t="str">
+      <c r="J30" s="18" t="str">
         <f>VLOOKUP(B30,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="20">
+      <c r="A31" s="17">
         <v>30</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="C31" s="20" t="str">
+      <c r="C31" s="17" t="str">
         <f>VLOOKUP(B31,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>9311</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="17">
         <f>VLOOKUP(D31,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>62</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="17">
         <v>320</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="20" t="str">
+      <c r="H31" s="17" t="str">
         <f>VLOOKUP(G31,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba329b46dfde803c43da55</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="I31" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J31" s="21" t="str">
+      <c r="J31" s="18" t="str">
         <f>VLOOKUP(B31,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="20">
+      <c r="A32" s="17">
         <v>31</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="C32" s="20" t="str">
+      <c r="C32" s="17" t="str">
         <f>VLOOKUP(B32,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>8117</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="17">
         <f>VLOOKUP(D32,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>62</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="17">
         <v>220</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="20" t="str">
+      <c r="H32" s="17" t="str">
         <f>VLOOKUP(G32,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba312a46dfde803c43cf42</v>
       </c>
-      <c r="I32" s="20" t="s">
+      <c r="I32" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J32" s="21" t="str">
+      <c r="J32" s="18" t="str">
         <f>VLOOKUP(B32,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="20">
+      <c r="A33" s="17">
         <v>32</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C33" s="20" t="str">
+      <c r="C33" s="17" t="str">
         <f>VLOOKUP(B33,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>7836</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="17">
         <f>VLOOKUP(D33,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>62</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="17">
         <v>100</v>
       </c>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="20" t="str">
+      <c r="H33" s="17" t="str">
         <f>VLOOKUP(G33,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba323046dfde803c43d6a0</v>
       </c>
-      <c r="I33" s="20" t="s">
+      <c r="I33" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J33" s="21" t="str">
+      <c r="J33" s="18" t="str">
         <f>VLOOKUP(B33,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="20">
+      <c r="A34" s="17">
         <v>33</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="17" t="s">
         <v>498</v>
       </c>
-      <c r="C34" s="20" t="str">
+      <c r="C34" s="17" t="str">
         <f>VLOOKUP(B34,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>1844</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="17">
         <f>VLOOKUP(D34,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>62</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="17">
         <v>10</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="20" t="str">
+      <c r="H34" s="17" t="str">
         <f>VLOOKUP(G34,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba317346dfde803c43d118</v>
       </c>
-      <c r="I34" s="20" t="s">
+      <c r="I34" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J34" s="21" t="str">
+      <c r="J34" s="18" t="str">
         <f>VLOOKUP(B34,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="20">
+      <c r="A35" s="17">
         <v>34</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="C35" s="20" t="str">
+      <c r="C35" s="17" t="str">
         <f>VLOOKUP(B35,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>8531</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="17">
         <f>VLOOKUP(D35,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>62</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="17">
         <v>10</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H35" s="20" t="str">
+      <c r="H35" s="17" t="str">
         <f>VLOOKUP(G35,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31ae46dfde803c43d2ef</v>
       </c>
-      <c r="I35" s="20" t="s">
+      <c r="I35" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J35" s="21" t="str">
+      <c r="J35" s="18" t="str">
         <f>VLOOKUP(B35,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="20">
+      <c r="A36" s="17">
         <v>35</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="17" t="s">
         <v>535</v>
       </c>
-      <c r="C36" s="20" t="e">
+      <c r="C36" s="17" t="e">
         <f>VLOOKUP(B36,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="17">
         <f>VLOOKUP(D36,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>62</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="17">
         <v>20</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="G36" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H36" s="20" t="str">
+      <c r="H36" s="17" t="str">
         <f>VLOOKUP(G36,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31ae46dfde803c43d2ef</v>
       </c>
-      <c r="I36" s="20" t="s">
+      <c r="I36" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J36" s="21" t="e">
+      <c r="J36" s="18" t="e">
         <f>VLOOKUP(B36,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="20">
+      <c r="A37" s="17">
         <v>36</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C37" s="20" t="str">
+      <c r="C37" s="17" t="str">
         <f>VLOOKUP(B37,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>8349</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="17">
         <f>VLOOKUP(D37,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>62</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="17">
         <v>30</v>
       </c>
-      <c r="G37" s="20" t="s">
+      <c r="G37" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="20" t="str">
+      <c r="H37" s="17" t="str">
         <f>VLOOKUP(G37,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba323046dfde803c43d6a0</v>
       </c>
-      <c r="I37" s="20" t="s">
+      <c r="I37" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J37" s="21" t="str">
+      <c r="J37" s="18" t="str">
         <f>VLOOKUP(B37,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="20">
+      <c r="A38" s="17">
         <v>37</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="C38" s="20" t="str">
+      <c r="C38" s="17" t="str">
         <f>VLOOKUP(B38,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>11684</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="17">
         <f>VLOOKUP(D38,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>62</v>
       </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20" t="s">
+      <c r="F38" s="17"/>
+      <c r="G38" s="17" t="s">
         <v>528</v>
       </c>
-      <c r="H38" s="20" t="e">
+      <c r="H38" s="17" t="e">
         <f>VLOOKUP(G38,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="I38" s="20" t="s">
+      <c r="I38" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J38" s="21" t="str">
+      <c r="J38" s="18" t="str">
         <f>VLOOKUP(B38,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="20">
+      <c r="A39" s="17">
         <v>38</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="C39" s="20" t="str">
+      <c r="C39" s="17" t="str">
         <f>VLOOKUP(B39,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>8356</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E39" s="17">
         <f>VLOOKUP(D39,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>64</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F39" s="17">
         <v>80</v>
       </c>
-      <c r="G39" s="20" t="s">
+      <c r="G39" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H39" s="20" t="str">
+      <c r="H39" s="17" t="str">
         <f>VLOOKUP(G39,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba30d446dfde803c43cd6d</v>
       </c>
-      <c r="I39" s="20" t="s">
+      <c r="I39" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J39" s="21" t="str">
+      <c r="J39" s="18" t="str">
         <f>VLOOKUP(B39,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="20">
+      <c r="A40" s="17">
         <v>39</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="20" t="str">
+      <c r="C40" s="17" t="str">
         <f>VLOOKUP(B40,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>11307</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="17">
         <f>VLOOKUP(D40,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>64</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F40" s="17">
         <v>100</v>
       </c>
-      <c r="G40" s="20" t="s">
+      <c r="G40" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="20" t="str">
+      <c r="H40" s="17" t="str">
         <f>VLOOKUP(G40,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31f046dfde803c43d4c7</v>
       </c>
-      <c r="I40" s="20" t="s">
+      <c r="I40" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J40" s="21" t="str">
+      <c r="J40" s="18" t="str">
         <f>VLOOKUP(B40,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="20">
+      <c r="A41" s="17">
         <v>40</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="C41" s="20" t="str">
+      <c r="C41" s="17" t="str">
         <f>VLOOKUP(B41,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>15727</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E41" s="17">
         <f>VLOOKUP(D41,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>64</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F41" s="17">
         <v>20</v>
       </c>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="20" t="str">
+      <c r="H41" s="17" t="str">
         <f>VLOOKUP(G41,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba326546dfde803c43d87a</v>
       </c>
-      <c r="I41" s="20" t="s">
+      <c r="I41" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J41" s="21" t="str">
+      <c r="J41" s="18" t="str">
         <f>VLOOKUP(B41,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="20">
+      <c r="A42" s="17">
         <v>41</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="C42" s="20" t="str">
+      <c r="C42" s="17" t="str">
         <f>VLOOKUP(B42,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>14190</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="17">
         <f>VLOOKUP(D42,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>64</v>
       </c>
-      <c r="F42" s="20">
+      <c r="F42" s="17">
         <v>70</v>
       </c>
-      <c r="G42" s="20" t="s">
+      <c r="G42" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="20" t="str">
+      <c r="H42" s="17" t="str">
         <f>VLOOKUP(G42,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31f046dfde803c43d4c7</v>
       </c>
-      <c r="I42" s="20" t="s">
+      <c r="I42" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J42" s="21" t="str">
+      <c r="J42" s="18" t="str">
         <f>VLOOKUP(B42,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="20">
+      <c r="A43" s="17">
         <v>42</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="C43" s="20" t="str">
+      <c r="C43" s="17" t="str">
         <f>VLOOKUP(B43,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>23346</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="17">
         <f>VLOOKUP(D43,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>64</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F43" s="17">
         <v>10</v>
       </c>
-      <c r="G43" s="20" t="s">
+      <c r="G43" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="20" t="str">
+      <c r="H43" s="17" t="str">
         <f>VLOOKUP(G43,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba30d446dfde803c43cd6d</v>
       </c>
-      <c r="I43" s="20" t="s">
+      <c r="I43" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J43" s="21" t="str">
+      <c r="J43" s="18" t="str">
         <f>VLOOKUP(B43,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" s="20">
+      <c r="A44" s="17">
         <v>43</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="C44" s="20" t="str">
+      <c r="C44" s="17" t="str">
         <f>VLOOKUP(B44,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>18504</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="17">
         <f>VLOOKUP(D44,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>64</v>
       </c>
-      <c r="F44" s="20">
+      <c r="F44" s="17">
         <v>40</v>
       </c>
-      <c r="G44" s="20" t="s">
+      <c r="G44" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="20" t="str">
+      <c r="H44" s="17" t="str">
         <f>VLOOKUP(G44,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba317346dfde803c43d118</v>
       </c>
-      <c r="I44" s="20" t="s">
+      <c r="I44" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J44" s="21" t="str">
+      <c r="J44" s="18" t="str">
         <f>VLOOKUP(B44,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" s="20">
+      <c r="A45" s="17">
         <v>44</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="20" t="str">
+      <c r="C45" s="17" t="str">
         <f>VLOOKUP(B45,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>14282</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E45" s="17">
         <f>VLOOKUP(D45,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>64</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F45" s="17">
         <v>80</v>
       </c>
-      <c r="G45" s="20" t="s">
+      <c r="G45" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H45" s="20" t="str">
+      <c r="H45" s="17" t="str">
         <f>VLOOKUP(G45,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31ae46dfde803c43d2ef</v>
       </c>
-      <c r="I45" s="20" t="s">
+      <c r="I45" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J45" s="21" t="str">
+      <c r="J45" s="18" t="str">
         <f>VLOOKUP(B45,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" s="20">
+      <c r="A46" s="17">
         <v>45</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="C46" s="20" t="str">
+      <c r="C46" s="17" t="str">
         <f>VLOOKUP(B46,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>24261</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="17">
         <f>VLOOKUP(D46,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>64</v>
       </c>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20" t="s">
+      <c r="F46" s="17"/>
+      <c r="G46" s="17" t="s">
         <v>528</v>
       </c>
-      <c r="H46" s="20" t="e">
+      <c r="H46" s="17" t="e">
         <f>VLOOKUP(G46,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="I46" s="20" t="s">
+      <c r="I46" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J46" s="21" t="str">
+      <c r="J46" s="18" t="str">
         <f>VLOOKUP(B46,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="20">
+      <c r="A47" s="17">
         <v>46</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="C47" s="20" t="str">
+      <c r="C47" s="17" t="str">
         <f>VLOOKUP(B47,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>11540</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="17">
         <f>VLOOKUP(D47,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>64</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F47" s="17">
         <v>100</v>
       </c>
-      <c r="G47" s="20" t="s">
+      <c r="G47" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H47" s="20" t="str">
+      <c r="H47" s="17" t="str">
         <f>VLOOKUP(G47,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba317346dfde803c43d118</v>
       </c>
-      <c r="I47" s="20" t="s">
+      <c r="I47" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J47" s="21" t="str">
+      <c r="J47" s="18" t="str">
         <f>VLOOKUP(B47,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" s="20">
+      <c r="A48" s="17">
         <v>47</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C48" s="20" t="str">
+      <c r="C48" s="17" t="str">
         <f>VLOOKUP(B48,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>1726</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="17">
         <f>VLOOKUP(D48,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>59</v>
       </c>
-      <c r="F48" s="20">
+      <c r="F48" s="17">
         <v>170</v>
       </c>
-      <c r="G48" s="20" t="s">
+      <c r="G48" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H48" s="20" t="str">
+      <c r="H48" s="17" t="str">
         <f>VLOOKUP(G48,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba2fe046dfde803c43c7e4</v>
       </c>
-      <c r="I48" s="20" t="s">
+      <c r="I48" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J48" s="21" t="str">
+      <c r="J48" s="18" t="str">
         <f>VLOOKUP(B48,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" s="20">
+      <c r="A49" s="17">
         <v>48</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="C49" s="20" t="str">
+      <c r="C49" s="17" t="str">
         <f>VLOOKUP(B49,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>6258</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="17">
         <f>VLOOKUP(D49,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>59</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F49" s="17">
         <v>100</v>
       </c>
-      <c r="G49" s="20" t="s">
+      <c r="G49" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H49" s="20" t="str">
+      <c r="H49" s="17" t="str">
         <f>VLOOKUP(G49,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31f046dfde803c43d4c7</v>
       </c>
-      <c r="I49" s="20" t="s">
+      <c r="I49" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J49" s="21" t="str">
+      <c r="J49" s="18" t="str">
         <f>VLOOKUP(B49,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" s="20">
+      <c r="A50" s="17">
         <v>49</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="C50" s="20" t="str">
+      <c r="C50" s="17" t="str">
         <f>VLOOKUP(B50,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>18509</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="17">
         <f>VLOOKUP(D50,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>59</v>
       </c>
-      <c r="F50" s="20">
+      <c r="F50" s="17">
         <v>30</v>
       </c>
-      <c r="G50" s="20" t="s">
+      <c r="G50" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="20" t="str">
+      <c r="H50" s="17" t="str">
         <f>VLOOKUP(G50,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba326546dfde803c43d87a</v>
       </c>
-      <c r="I50" s="20" t="s">
+      <c r="I50" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J50" s="21" t="str">
+      <c r="J50" s="18" t="str">
         <f>VLOOKUP(B50,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A51" s="20">
+      <c r="A51" s="17">
         <v>50</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="20" t="str">
+      <c r="C51" s="17" t="str">
         <f>VLOOKUP(B51,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>9603</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E51" s="17">
         <f>VLOOKUP(D51,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>59</v>
       </c>
-      <c r="F51" s="20">
+      <c r="F51" s="17">
         <v>10</v>
       </c>
-      <c r="G51" s="20" t="s">
+      <c r="G51" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="20" t="str">
+      <c r="H51" s="17" t="str">
         <f>VLOOKUP(G51,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31f046dfde803c43d4c7</v>
       </c>
-      <c r="I51" s="20" t="s">
+      <c r="I51" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J51" s="21" t="str">
+      <c r="J51" s="18" t="str">
         <f>VLOOKUP(B51,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52" s="20">
+      <c r="A52" s="17">
         <v>51</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="C52" s="20" t="str">
+      <c r="C52" s="17" t="str">
         <f>VLOOKUP(B52,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>14172</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="17">
         <f>VLOOKUP(D52,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>59</v>
       </c>
-      <c r="F52" s="20">
+      <c r="F52" s="17">
         <v>70</v>
       </c>
-      <c r="G52" s="20" t="s">
+      <c r="G52" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H52" s="20" t="str">
+      <c r="H52" s="17" t="str">
         <f>VLOOKUP(G52,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba317346dfde803c43d118</v>
       </c>
-      <c r="I52" s="20" t="s">
+      <c r="I52" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J52" s="21" t="str">
+      <c r="J52" s="18" t="str">
         <f>VLOOKUP(B52,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" s="20">
+      <c r="A53" s="17">
         <v>52</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="C53" s="20" t="str">
+      <c r="C53" s="17" t="str">
         <f>VLOOKUP(B53,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>14274</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D53" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="17">
         <f>VLOOKUP(D53,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>59</v>
       </c>
-      <c r="F53" s="20">
+      <c r="F53" s="17">
         <v>30</v>
       </c>
-      <c r="G53" s="20" t="s">
+      <c r="G53" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H53" s="20" t="str">
+      <c r="H53" s="17" t="str">
         <f>VLOOKUP(G53,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba307846dfde803c43cb99</v>
       </c>
-      <c r="I53" s="20" t="s">
+      <c r="I53" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J53" s="21" t="str">
+      <c r="J53" s="18" t="str">
         <f>VLOOKUP(B53,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54" s="20">
+      <c r="A54" s="17">
         <v>53</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C54" s="20" t="str">
+      <c r="C54" s="17" t="str">
         <f>VLOOKUP(B54,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>36487</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D54" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="17">
         <f>VLOOKUP(D54,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>59</v>
       </c>
-      <c r="F54" s="20">
+      <c r="F54" s="17">
         <v>30</v>
       </c>
-      <c r="G54" s="20" t="s">
+      <c r="G54" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H54" s="20" t="str">
+      <c r="H54" s="17" t="str">
         <f>VLOOKUP(G54,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba307846dfde803c43cb99</v>
       </c>
-      <c r="I54" s="20" t="s">
+      <c r="I54" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J54" s="21" t="str">
+      <c r="J54" s="18" t="str">
         <f>VLOOKUP(B54,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55" s="20">
+      <c r="A55" s="17">
         <v>54</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="C55" s="20" t="str">
+      <c r="C55" s="17" t="str">
         <f>VLOOKUP(B55,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>1447073</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="17">
         <f>VLOOKUP(D55,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>59</v>
       </c>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20" t="s">
+      <c r="F55" s="17"/>
+      <c r="G55" s="17" t="s">
         <v>528</v>
       </c>
-      <c r="H55" s="20" t="e">
+      <c r="H55" s="17" t="e">
         <f>VLOOKUP(G55,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="I55" s="20" t="s">
+      <c r="I55" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J55" s="21" t="str">
+      <c r="J55" s="18" t="str">
         <f>VLOOKUP(B55,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A56" s="20">
+      <c r="A56" s="17">
         <v>55</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="C56" s="20" t="str">
+      <c r="C56" s="17" t="str">
         <f>VLOOKUP(B56,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>8095</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="D56" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="17">
         <f>VLOOKUP(D56,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>255</v>
       </c>
-      <c r="F56" s="20">
+      <c r="F56" s="17">
         <v>140</v>
       </c>
-      <c r="G56" s="20" t="s">
+      <c r="G56" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H56" s="20" t="str">
+      <c r="H56" s="17" t="str">
         <f>VLOOKUP(G56,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba2fe046dfde803c43c7e4</v>
       </c>
-      <c r="I56" s="20" t="s">
+      <c r="I56" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J56" s="21" t="str">
+      <c r="J56" s="18" t="str">
         <f>VLOOKUP(B56,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A57" s="20">
+      <c r="A57" s="17">
         <v>56</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="C57" s="20" t="str">
+      <c r="C57" s="17" t="str">
         <f>VLOOKUP(B57,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>7909</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E57" s="17">
         <f>VLOOKUP(D57,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>255</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F57" s="17">
         <v>300</v>
       </c>
-      <c r="G57" s="20" t="s">
+      <c r="G57" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H57" s="20" t="str">
+      <c r="H57" s="17" t="str">
         <f>VLOOKUP(G57,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba329b46dfde803c43da55</v>
       </c>
-      <c r="I57" s="20" t="s">
+      <c r="I57" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J57" s="21" t="str">
+      <c r="J57" s="18" t="str">
         <f>VLOOKUP(B57,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A58" s="20">
+      <c r="A58" s="17">
         <v>57</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="C58" s="20" t="str">
+      <c r="C58" s="17" t="str">
         <f>VLOOKUP(B58,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>8175</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E58" s="17">
         <f>VLOOKUP(D58,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>255</v>
       </c>
-      <c r="F58" s="20">
+      <c r="F58" s="17">
         <v>170</v>
       </c>
-      <c r="G58" s="20" t="s">
+      <c r="G58" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="20" t="str">
+      <c r="H58" s="17" t="str">
         <f>VLOOKUP(G58,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba30d446dfde803c43cd6d</v>
       </c>
-      <c r="I58" s="20" t="s">
+      <c r="I58" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J58" s="21" t="str">
+      <c r="J58" s="18" t="str">
         <f>VLOOKUP(B58,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A59" s="20">
+      <c r="A59" s="17">
         <v>58</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="C59" s="20" t="str">
+      <c r="C59" s="17" t="str">
         <f>VLOOKUP(B59,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>12087</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D59" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="17">
         <f>VLOOKUP(D59,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>255</v>
       </c>
-      <c r="F59" s="20">
+      <c r="F59" s="17">
         <v>80</v>
       </c>
-      <c r="G59" s="20" t="s">
+      <c r="G59" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H59" s="20" t="str">
+      <c r="H59" s="17" t="str">
         <f>VLOOKUP(G59,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31f046dfde803c43d4c7</v>
       </c>
-      <c r="I59" s="20" t="s">
+      <c r="I59" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J59" s="21" t="str">
+      <c r="J59" s="18" t="str">
         <f>VLOOKUP(B59,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A60" s="20">
+      <c r="A60" s="17">
         <v>59</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="17" t="s">
         <v>458</v>
       </c>
-      <c r="C60" s="20" t="str">
+      <c r="C60" s="17" t="str">
         <f>VLOOKUP(B60,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>8642</v>
       </c>
-      <c r="D60" s="20" t="s">
+      <c r="D60" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="20">
+      <c r="E60" s="17">
         <f>VLOOKUP(D60,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>255</v>
       </c>
-      <c r="F60" s="20">
+      <c r="F60" s="17">
         <v>50</v>
       </c>
-      <c r="G60" s="20" t="s">
+      <c r="G60" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H60" s="20" t="str">
+      <c r="H60" s="17" t="str">
         <f>VLOOKUP(G60,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba307846dfde803c43cb99</v>
       </c>
-      <c r="I60" s="20" t="s">
+      <c r="I60" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J60" s="21" t="str">
+      <c r="J60" s="18" t="str">
         <f>VLOOKUP(B60,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A61" s="20">
+      <c r="A61" s="17">
         <v>60</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="C61" s="20" t="str">
+      <c r="C61" s="17" t="str">
         <f>VLOOKUP(B61,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>14163</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D61" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="20">
+      <c r="E61" s="17">
         <f>VLOOKUP(D61,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>255</v>
       </c>
-      <c r="F61" s="20">
+      <c r="F61" s="17">
         <v>20</v>
       </c>
-      <c r="G61" s="20" t="s">
+      <c r="G61" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H61" s="20" t="str">
+      <c r="H61" s="17" t="str">
         <f>VLOOKUP(G61,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba329b46dfde803c43da55</v>
       </c>
-      <c r="I61" s="20" t="s">
+      <c r="I61" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J61" s="21" t="str">
+      <c r="J61" s="18" t="str">
         <f>VLOOKUP(B61,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A62" s="20">
+      <c r="A62" s="17">
         <v>61</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C62" s="20" t="str">
+      <c r="C62" s="17" t="str">
         <f>VLOOKUP(B62,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>46926</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="D62" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="20">
+      <c r="E62" s="17">
         <f>VLOOKUP(D62,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>255</v>
       </c>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20" t="s">
+      <c r="F62" s="17"/>
+      <c r="G62" s="17" t="s">
         <v>528</v>
       </c>
-      <c r="H62" s="20" t="e">
+      <c r="H62" s="17" t="e">
         <f>VLOOKUP(G62,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="I62" s="20" t="s">
+      <c r="I62" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J62" s="21" t="str">
+      <c r="J62" s="18" t="str">
         <f>VLOOKUP(B62,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A63" s="20">
+      <c r="A63" s="17">
         <v>62</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C63" s="20" t="str">
+      <c r="C63" s="17" t="str">
         <f>VLOOKUP(B63,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>6327</v>
       </c>
-      <c r="D63" s="20" t="s">
+      <c r="D63" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="20">
+      <c r="E63" s="17">
         <f>VLOOKUP(D63,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>255</v>
       </c>
-      <c r="F63" s="20">
+      <c r="F63" s="17">
         <v>10</v>
       </c>
-      <c r="G63" s="20" t="s">
+      <c r="G63" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H63" s="20" t="str">
+      <c r="H63" s="17" t="str">
         <f>VLOOKUP(G63,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31ae46dfde803c43d2ef</v>
       </c>
-      <c r="I63" s="20" t="s">
+      <c r="I63" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J63" s="21" t="str">
+      <c r="J63" s="18" t="str">
         <f>VLOOKUP(B63,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A64" s="20">
+      <c r="A64" s="17">
         <v>63</v>
       </c>
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="17" t="s">
         <v>460</v>
       </c>
-      <c r="C64" s="20" t="str">
+      <c r="C64" s="17" t="str">
         <f>VLOOKUP(B64,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>11436</v>
       </c>
-      <c r="D64" s="20" t="s">
+      <c r="D64" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="20">
+      <c r="E64" s="17">
         <f>VLOOKUP(D64,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>255</v>
       </c>
-      <c r="F64" s="20">
+      <c r="F64" s="17">
         <v>20</v>
       </c>
-      <c r="G64" s="20" t="s">
+      <c r="G64" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H64" s="20" t="str">
+      <c r="H64" s="17" t="str">
         <f>VLOOKUP(G64,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba30d446dfde803c43cd6d</v>
       </c>
-      <c r="I64" s="20" t="s">
+      <c r="I64" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J64" s="21" t="str">
+      <c r="J64" s="18" t="str">
         <f>VLOOKUP(B64,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65" s="20">
+      <c r="A65" s="17">
         <v>64</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C65" s="20" t="str">
+      <c r="C65" s="17" t="str">
         <f>VLOOKUP(B65,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>10946</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D65" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="20">
+      <c r="E65" s="17">
         <f>VLOOKUP(D65,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>255</v>
       </c>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20" t="s">
+      <c r="F65" s="17"/>
+      <c r="G65" s="17" t="s">
         <v>528</v>
       </c>
-      <c r="H65" s="20" t="e">
+      <c r="H65" s="17" t="e">
         <f>VLOOKUP(G65,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="I65" s="20" t="s">
+      <c r="I65" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J65" s="21" t="str">
+      <c r="J65" s="18" t="str">
         <f>VLOOKUP(B65,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A66" s="20">
+      <c r="A66" s="17">
         <v>65</v>
       </c>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="C66" s="20" t="str">
+      <c r="C66" s="17" t="str">
         <f>VLOOKUP(B66,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>14659</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="D66" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E66" s="20">
+      <c r="E66" s="17">
         <f>VLOOKUP(D66,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>966</v>
       </c>
-      <c r="F66" s="20">
+      <c r="F66" s="17">
         <v>220</v>
       </c>
-      <c r="G66" s="20" t="s">
+      <c r="G66" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H66" s="20" t="str">
+      <c r="H66" s="17" t="str">
         <f>VLOOKUP(G66,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31ae46dfde803c43d2ef</v>
       </c>
-      <c r="I66" s="20" t="s">
+      <c r="I66" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J66" s="21" t="str">
+      <c r="J66" s="18" t="str">
         <f>VLOOKUP(B66,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A67" s="20">
+      <c r="A67" s="17">
         <v>66</v>
       </c>
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="C67" s="20" t="str">
+      <c r="C67" s="17" t="str">
         <f>VLOOKUP(B67,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>22401</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="D67" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E67" s="20">
+      <c r="E67" s="17">
         <f>VLOOKUP(D67,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>966</v>
       </c>
-      <c r="F67" s="20">
+      <c r="F67" s="17">
         <v>60</v>
       </c>
-      <c r="G67" s="20" t="s">
+      <c r="G67" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H67" s="20" t="str">
+      <c r="H67" s="17" t="str">
         <f>VLOOKUP(G67,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba326546dfde803c43d87a</v>
       </c>
-      <c r="I67" s="20" t="s">
+      <c r="I67" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J67" s="21" t="str">
+      <c r="J67" s="18" t="str">
         <f>VLOOKUP(B67,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A68" s="20">
+      <c r="A68" s="17">
         <v>67</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="C68" s="20" t="str">
+      <c r="C68" s="17" t="str">
         <f>VLOOKUP(B68,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>9781</v>
       </c>
-      <c r="D68" s="20" t="s">
+      <c r="D68" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E68" s="20">
+      <c r="E68" s="17">
         <f>VLOOKUP(D68,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>966</v>
       </c>
-      <c r="F68" s="20">
+      <c r="F68" s="17">
         <v>110</v>
       </c>
-      <c r="G68" s="20" t="s">
+      <c r="G68" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H68" s="20" t="str">
+      <c r="H68" s="17" t="str">
         <f>VLOOKUP(G68,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31ae46dfde803c43d2ef</v>
       </c>
-      <c r="I68" s="20" t="s">
+      <c r="I68" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J68" s="21" t="str">
+      <c r="J68" s="18" t="str">
         <f>VLOOKUP(B68,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A69" s="20">
+      <c r="A69" s="17">
         <v>68</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="C69" s="20" t="str">
+      <c r="C69" s="17" t="str">
         <f>VLOOKUP(B69,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>14726</v>
       </c>
-      <c r="D69" s="20" t="s">
+      <c r="D69" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E69" s="20">
+      <c r="E69" s="17">
         <f>VLOOKUP(D69,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>966</v>
       </c>
-      <c r="F69" s="20">
+      <c r="F69" s="17">
         <v>50</v>
       </c>
-      <c r="G69" s="20" t="s">
+      <c r="G69" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H69" s="20" t="str">
+      <c r="H69" s="17" t="str">
         <f>VLOOKUP(G69,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba307846dfde803c43cb99</v>
       </c>
-      <c r="I69" s="20" t="s">
+      <c r="I69" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J69" s="21" t="str">
+      <c r="J69" s="18" t="str">
         <f>VLOOKUP(B69,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A70" s="20">
+      <c r="A70" s="17">
         <v>69</v>
       </c>
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="C70" s="20" t="str">
+      <c r="C70" s="17" t="str">
         <f>VLOOKUP(B70,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>12930</v>
       </c>
-      <c r="D70" s="20" t="s">
+      <c r="D70" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="20">
+      <c r="E70" s="17">
         <f>VLOOKUP(D70,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>966</v>
       </c>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20" t="s">
+      <c r="F70" s="17"/>
+      <c r="G70" s="17" t="s">
         <v>528</v>
       </c>
-      <c r="H70" s="20" t="e">
+      <c r="H70" s="17" t="e">
         <f>VLOOKUP(G70,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="I70" s="20" t="s">
+      <c r="I70" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J70" s="21" t="str">
+      <c r="J70" s="18" t="str">
         <f>VLOOKUP(B70,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A71" s="20">
+      <c r="A71" s="17">
         <v>70</v>
       </c>
-      <c r="B71" s="20" t="s">
+      <c r="B71" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="C71" s="20" t="str">
+      <c r="C71" s="17" t="str">
         <f>VLOOKUP(B71,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>50458</v>
       </c>
-      <c r="D71" s="20" t="s">
+      <c r="D71" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E71" s="20">
+      <c r="E71" s="17">
         <f>VLOOKUP(D71,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>966</v>
       </c>
-      <c r="F71" s="20">
+      <c r="F71" s="17">
         <v>10</v>
       </c>
-      <c r="G71" s="20" t="s">
+      <c r="G71" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H71" s="20" t="str">
+      <c r="H71" s="17" t="str">
         <f>VLOOKUP(G71,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba30d446dfde803c43cd6d</v>
       </c>
-      <c r="I71" s="20" t="s">
+      <c r="I71" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J71" s="21" t="str">
+      <c r="J71" s="18" t="str">
         <f>VLOOKUP(B71,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A72" s="20">
+      <c r="A72" s="17">
         <v>71</v>
       </c>
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="C72" s="20" t="str">
+      <c r="C72" s="17" t="str">
         <f>VLOOKUP(B72,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>54735</v>
       </c>
-      <c r="D72" s="20" t="s">
+      <c r="D72" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E72" s="20">
+      <c r="E72" s="17">
         <f>VLOOKUP(D72,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>966</v>
       </c>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20" t="s">
+      <c r="F72" s="17"/>
+      <c r="G72" s="17" t="s">
         <v>528</v>
       </c>
-      <c r="H72" s="20" t="e">
+      <c r="H72" s="17" t="e">
         <f>VLOOKUP(G72,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="I72" s="20" t="s">
+      <c r="I72" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J72" s="21" t="str">
+      <c r="J72" s="18" t="str">
         <f>VLOOKUP(B72,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A73" s="20">
+      <c r="A73" s="17">
         <v>72</v>
       </c>
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="C73" s="20" t="str">
+      <c r="C73" s="17" t="str">
         <f>VLOOKUP(B73,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>13534</v>
       </c>
-      <c r="D73" s="20" t="s">
+      <c r="D73" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="20">
+      <c r="E73" s="17">
         <f>VLOOKUP(D73,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>966</v>
       </c>
-      <c r="F73" s="20">
+      <c r="F73" s="17">
         <v>70</v>
       </c>
-      <c r="G73" s="20" t="s">
+      <c r="G73" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H73" s="20" t="str">
+      <c r="H73" s="17" t="str">
         <f>VLOOKUP(G73,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba307846dfde803c43cb99</v>
       </c>
-      <c r="I73" s="20" t="s">
+      <c r="I73" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J73" s="21" t="str">
+      <c r="J73" s="18" t="str">
         <f>VLOOKUP(B73,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A74" s="20">
+      <c r="A74" s="17">
         <v>73</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="C74" s="20" t="str">
+      <c r="C74" s="17" t="str">
         <f>VLOOKUP(B74,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>13320</v>
       </c>
-      <c r="D74" s="20" t="s">
+      <c r="D74" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E74" s="20">
+      <c r="E74" s="17">
         <f>VLOOKUP(D74,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>971</v>
       </c>
-      <c r="F74" s="20">
+      <c r="F74" s="17">
         <v>10</v>
       </c>
-      <c r="G74" s="20" t="s">
+      <c r="G74" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H74" s="20" t="str">
+      <c r="H74" s="17" t="str">
         <f>VLOOKUP(G74,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba307846dfde803c43cb99</v>
       </c>
-      <c r="I74" s="20" t="s">
+      <c r="I74" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J74" s="21" t="str">
+      <c r="J74" s="18" t="str">
         <f>VLOOKUP(B74,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A75" s="20">
-        <v>74</v>
-      </c>
-      <c r="B75" s="20" t="s">
+      <c r="A75" s="17">
+        <v>74</v>
+      </c>
+      <c r="B75" s="17" t="s">
         <v>506</v>
       </c>
-      <c r="C75" s="20" t="str">
+      <c r="C75" s="17" t="str">
         <f>VLOOKUP(B75,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>14596</v>
       </c>
-      <c r="D75" s="20" t="s">
+      <c r="D75" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E75" s="20">
+      <c r="E75" s="17">
         <f>VLOOKUP(D75,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>971</v>
       </c>
-      <c r="F75" s="20">
+      <c r="F75" s="17">
         <v>20</v>
       </c>
-      <c r="G75" s="20" t="s">
+      <c r="G75" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H75" s="20" t="str">
+      <c r="H75" s="17" t="str">
         <f>VLOOKUP(G75,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31f046dfde803c43d4c7</v>
       </c>
-      <c r="I75" s="20" t="s">
+      <c r="I75" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J75" s="21" t="str">
+      <c r="J75" s="18" t="str">
         <f>VLOOKUP(B75,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A76" s="20">
+      <c r="A76" s="17">
         <v>75</v>
       </c>
-      <c r="B76" s="20" t="s">
+      <c r="B76" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="C76" s="20" t="str">
+      <c r="C76" s="17" t="str">
         <f>VLOOKUP(B76,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>22141</v>
       </c>
-      <c r="D76" s="20" t="s">
+      <c r="D76" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E76" s="20">
+      <c r="E76" s="17">
         <f>VLOOKUP(D76,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>971</v>
       </c>
-      <c r="F76" s="20">
+      <c r="F76" s="17">
         <v>20</v>
       </c>
-      <c r="G76" s="20" t="s">
+      <c r="G76" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H76" s="20" t="str">
+      <c r="H76" s="17" t="str">
         <f>VLOOKUP(G76,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31f046dfde803c43d4c7</v>
       </c>
-      <c r="I76" s="20" t="s">
+      <c r="I76" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J76" s="21" t="str">
+      <c r="J76" s="18" t="str">
         <f>VLOOKUP(B76,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A77" s="20">
+      <c r="A77" s="17">
         <v>76</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="C77" s="20" t="str">
+      <c r="C77" s="17" t="str">
         <f>VLOOKUP(B77,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>702</v>
       </c>
-      <c r="D77" s="20" t="s">
+      <c r="D77" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E77" s="20">
+      <c r="E77" s="17">
         <f>VLOOKUP(D77,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>971</v>
       </c>
-      <c r="F77" s="20">
+      <c r="F77" s="17">
         <v>10</v>
       </c>
-      <c r="G77" s="20" t="s">
+      <c r="G77" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H77" s="20" t="str">
+      <c r="H77" s="17" t="str">
         <f>VLOOKUP(G77,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31f046dfde803c43d4c7</v>
       </c>
-      <c r="I77" s="20" t="s">
+      <c r="I77" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J77" s="21" t="str">
+      <c r="J77" s="18" t="str">
         <f>VLOOKUP(B77,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A78" s="20">
+      <c r="A78" s="17">
         <v>77</v>
       </c>
-      <c r="B78" s="20" t="s">
+      <c r="B78" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="C78" s="20" t="str">
+      <c r="C78" s="17" t="str">
         <f>VLOOKUP(B78,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>9585</v>
       </c>
-      <c r="D78" s="20" t="s">
+      <c r="D78" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E78" s="20">
+      <c r="E78" s="17">
         <f>VLOOKUP(D78,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>971</v>
       </c>
-      <c r="F78" s="20">
+      <c r="F78" s="17">
         <v>200</v>
       </c>
-      <c r="G78" s="20" t="s">
+      <c r="G78" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H78" s="20" t="str">
+      <c r="H78" s="17" t="str">
         <f>VLOOKUP(G78,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba30d446dfde803c43cd6d</v>
       </c>
-      <c r="I78" s="20" t="s">
+      <c r="I78" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J78" s="21" t="str">
+      <c r="J78" s="18" t="str">
         <f>VLOOKUP(B78,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A79" s="20">
+      <c r="A79" s="17">
         <v>78</v>
       </c>
-      <c r="B79" s="20" t="s">
+      <c r="B79" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="C79" s="20" t="str">
+      <c r="C79" s="17" t="str">
         <f>VLOOKUP(B79,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>10551</v>
       </c>
-      <c r="D79" s="20" t="s">
+      <c r="D79" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E79" s="20">
+      <c r="E79" s="17">
         <f>VLOOKUP(D79,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>971</v>
       </c>
-      <c r="F79" s="20">
+      <c r="F79" s="17">
         <v>30</v>
       </c>
-      <c r="G79" s="20" t="s">
+      <c r="G79" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H79" s="20" t="str">
+      <c r="H79" s="17" t="str">
         <f>VLOOKUP(G79,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba31f046dfde803c43d4c7</v>
       </c>
-      <c r="I79" s="20" t="s">
+      <c r="I79" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J79" s="21" t="str">
+      <c r="J79" s="18" t="str">
         <f>VLOOKUP(B79,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A80" s="20">
+      <c r="A80" s="17">
         <v>79</v>
       </c>
-      <c r="B80" s="21" t="s">
+      <c r="B80" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="C80" s="20" t="str">
+      <c r="C80" s="17" t="str">
         <f>VLOOKUP(B80,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>12643</v>
       </c>
-      <c r="D80" s="20" t="s">
+      <c r="D80" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E80" s="20">
+      <c r="E80" s="17">
         <f>VLOOKUP(D80,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>971</v>
       </c>
-      <c r="F80" s="20">
+      <c r="F80" s="17">
         <v>60</v>
       </c>
-      <c r="G80" s="20" t="s">
+      <c r="G80" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H80" s="20" t="str">
+      <c r="H80" s="17" t="str">
         <f>VLOOKUP(G80,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba326546dfde803c43d87a</v>
       </c>
-      <c r="I80" s="20" t="s">
+      <c r="I80" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J80" s="21" t="str">
+      <c r="J80" s="18" t="str">
         <f>VLOOKUP(B80,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A81" s="20">
+      <c r="A81" s="17">
         <v>80</v>
       </c>
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="C81" s="20" t="str">
+      <c r="C81" s="17" t="str">
         <f>VLOOKUP(B81,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>10808</v>
       </c>
-      <c r="D81" s="20" t="s">
+      <c r="D81" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E81" s="20">
+      <c r="E81" s="17">
         <f>VLOOKUP(D81,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>971</v>
       </c>
-      <c r="F81" s="20">
+      <c r="F81" s="17">
         <v>100</v>
       </c>
-      <c r="G81" s="20" t="s">
+      <c r="G81" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H81" s="20" t="str">
+      <c r="H81" s="17" t="str">
         <f>VLOOKUP(G81,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba329b46dfde803c43da55</v>
       </c>
-      <c r="I81" s="20" t="s">
+      <c r="I81" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J81" s="21" t="str">
+      <c r="J81" s="18" t="str">
         <f>VLOOKUP(B81,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A82" s="20">
+      <c r="A82" s="17">
         <v>82</v>
       </c>
-      <c r="B82" s="23" t="s">
+      <c r="B82" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="C82" s="20" t="str">
+      <c r="C82" s="17" t="str">
         <f>VLOOKUP(B82,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>12926</v>
       </c>
-      <c r="D82" s="20" t="s">
+      <c r="D82" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E82" s="20">
+      <c r="E82" s="17">
         <f>VLOOKUP(D82,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>63</v>
       </c>
-      <c r="F82" s="20">
+      <c r="F82" s="17">
         <v>50</v>
       </c>
-      <c r="G82" s="20" t="s">
+      <c r="G82" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H82" s="20" t="str">
+      <c r="H82" s="17" t="str">
         <f>VLOOKUP(G82,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba312a46dfde803c43cf42</v>
       </c>
-      <c r="I82" s="20" t="s">
+      <c r="I82" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J82" s="21" t="str">
+      <c r="J82" s="18" t="str">
         <f>VLOOKUP(B82,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>Bowler</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A83" s="20">
+      <c r="A83" s="17">
         <v>83</v>
       </c>
-      <c r="B83" s="20" t="s">
+      <c r="B83" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C83" s="20" t="str">
+      <c r="C83" s="17" t="str">
         <f>VLOOKUP(B83,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>10738</v>
       </c>
-      <c r="D83" s="20" t="s">
+      <c r="D83" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E83" s="20">
+      <c r="E83" s="17">
         <f>VLOOKUP(D83,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>971</v>
       </c>
-      <c r="F83" s="20">
+      <c r="F83" s="17">
         <v>110</v>
       </c>
-      <c r="G83" s="20" t="s">
+      <c r="G83" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H83" s="20" t="str">
+      <c r="H83" s="17" t="str">
         <f>VLOOKUP(G83,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba2fe046dfde803c43c7e4</v>
       </c>
-      <c r="I83" s="20" t="s">
+      <c r="I83" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J83" s="21" t="str">
+      <c r="J83" s="18" t="str">
         <f>VLOOKUP(B83,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>AllRounder</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A84" s="20">
+      <c r="A84" s="17">
         <v>84</v>
       </c>
-      <c r="B84" s="20" t="s">
+      <c r="B84" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C84" s="20" t="str">
+      <c r="C84" s="17" t="str">
         <f>VLOOKUP(B84,playerList[[playerName]:[playerRoleType]],2,0)</f>
         <v>2276</v>
       </c>
-      <c r="D84" s="20" t="s">
+      <c r="D84" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E84" s="20">
+      <c r="E84" s="17">
         <f>VLOOKUP(D84,'General Instruction'!$D$2:$E$11,2,0)</f>
         <v>63</v>
       </c>
-      <c r="F84" s="20">
+      <c r="F84" s="17">
         <v>40</v>
       </c>
-      <c r="G84" s="20" t="s">
+      <c r="G84" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H84" s="20" t="str">
+      <c r="H84" s="17" t="str">
         <f>VLOOKUP(G84,'General Instruction'!$G$2:$H$11,2,0)</f>
         <v>67ba317346dfde803c43d118</v>
       </c>
-      <c r="I84" s="20" t="s">
+      <c r="I84" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="J84" s="21" t="str">
+      <c r="J84" s="18" t="str">
         <f>VLOOKUP(B84,playerList[[playerName]:[playerRoleType]],4,0)</f>
         <v>AllRounder</v>
       </c>
